--- a/LQCE/LQCE.SharePoint/Layouts/Prestaciones/PrestacionesVeterinarias.xlsx
+++ b/LQCE/LQCE.SharePoint/Layouts/Prestaciones/PrestacionesVeterinarias.xlsx
@@ -441,16 +441,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>

--- a/LQCE/LQCE.SharePoint/Layouts/Prestaciones/PrestacionesVeterinarias.xlsx
+++ b/LQCE/LQCE.SharePoint/Layouts/Prestaciones/PrestacionesVeterinarias.xlsx
@@ -34,9 +34,6 @@
     <t>SEXO</t>
   </si>
   <si>
-    <t>SOLICITA</t>
-  </si>
-  <si>
     <t>TELEFONO</t>
   </si>
   <si>
@@ -79,22 +76,25 @@
     <t>GARANTIA</t>
   </si>
   <si>
-    <t>PAGADO</t>
-  </si>
-  <si>
     <t>FECHA RECEPCION</t>
   </si>
   <si>
-    <t>FECHA MUESTRA</t>
-  </si>
-  <si>
-    <t>FECHA RESULTADOS</t>
-  </si>
-  <si>
     <t>VALOR 5</t>
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>INGRESO</t>
+  </si>
+  <si>
+    <t>RECEPCION</t>
+  </si>
+  <si>
+    <t>SOLICITANTE</t>
+  </si>
+  <si>
+    <t>HORA RECEPCION</t>
   </si>
 </sst>
 </file>
@@ -130,8 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,94 +442,112 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="20.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>